--- a/biology/Écologie/Urbanisme_transitoire/Urbanisme_transitoire.xlsx
+++ b/biology/Écologie/Urbanisme_transitoire/Urbanisme_transitoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les expressions « urbanisme transitoire » ou « urbanisme temporaire » renvoient aux pratiques d'urbanisme consistant en l'occupation passagère de lieux publics ou privés, généralement comme préalable à un aménagement pérenne.
 </t>
@@ -511,10 +523,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'urbanisme transitoire constitue une forme d'expression de l'urbanisme tactique, mettant à profit un patrimoine immobilier vacant. Bien qu'émanant souvent d'initiatives profanes ou professionnelles autonomes voire contestataires vis-à-vis des pouvoirs locaux, l'urbanisme transitoire peut faire l'objet d'un soutien institutionnel, par exemple un site industriel ou commercial ayant perdu cette activité économique initiale[1].
-Cécile Diguet, urbaniste de l'Institut d'aménagement et d'urbanisme de la région d'Île-de-France, différencie l'urbanisme temporaire, qui ne distingue que la temporalité de l'aménagement, de l'urbanisme transitoire, traduisant une véritable connexion qualitative entre les usages passés, actuels et à venir du lieu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'urbanisme transitoire constitue une forme d'expression de l'urbanisme tactique, mettant à profit un patrimoine immobilier vacant. Bien qu'émanant souvent d'initiatives profanes ou professionnelles autonomes voire contestataires vis-à-vis des pouvoirs locaux, l'urbanisme transitoire peut faire l'objet d'un soutien institutionnel, par exemple un site industriel ou commercial ayant perdu cette activité économique initiale.
+Cécile Diguet, urbaniste de l'Institut d'aménagement et d'urbanisme de la région d'Île-de-France, différencie l'urbanisme temporaire, qui ne distingue que la temporalité de l'aménagement, de l'urbanisme transitoire, traduisant une véritable connexion qualitative entre les usages passés, actuels et à venir du lieu.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette utilisation transitoire d'un patrimoine immobilier vacant ne va pas forcément à l'encontre des objectifs des collectivités territoriales, ni non plus du marché de l'immobilier local. D'une part, une location, même peu élevée, à des occupants temporaires constitue une source de revenus. De plus, elle participe aussi à maintenir un entretien du bâtiment, et elle peut contribuer à le valoriser grâce à la créativité des usagers transitoires, tout en préparant quelquefois son évolution[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette utilisation transitoire d'un patrimoine immobilier vacant ne va pas forcément à l'encontre des objectifs des collectivités territoriales, ni non plus du marché de l'immobilier local. D'une part, une location, même peu élevée, à des occupants temporaires constitue une source de revenus. De plus, elle participe aussi à maintenir un entretien du bâtiment, et elle peut contribuer à le valoriser grâce à la créativité des usagers transitoires, tout en préparant quelquefois son évolution. 
 Comme exemples d'urbanisme transitoire peuvent être cités :
-le 59 Rivoli[1],
-le site industriel Christofle à Saint-Denis transformé en Musée de l'orfèvrerie Bouilhet-Christofle, puis occupé transitoirement par des artistes avant le lancement d'un nouveau projet de reconvertion pour ce site[1],
-Les Grands Voisins, occupation transitoire de l'ancien hôpital Saint-Vincent-de-Paul[1],[3],</t>
+le 59 Rivoli,
+le site industriel Christofle à Saint-Denis transformé en Musée de l'orfèvrerie Bouilhet-Christofle, puis occupé transitoirement par des artistes avant le lancement d'un nouveau projet de reconvertion pour ce site,
+Les Grands Voisins, occupation transitoire de l'ancien hôpital Saint-Vincent-de-Paul</t>
         </is>
       </c>
     </row>
